--- a/tropical-ml.xlsx
+++ b/tropical-ml.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -45,16 +45,73 @@
     <t>LOJA</t>
   </si>
   <si>
-    <t>Oceantech Bomba 20000l/h Ac 20000 Com Controle Vazão</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2186368037-oceantech-bomba-20000lh-ac-20000-com-controle-vazo-_JM?searchVariation=174232922577#searchVariation=174232922577&amp;position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=6ec41179-720b-487b-b6cf-e67942a09e7e</t>
-  </si>
-  <si>
-    <t>ANIMALL4U</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/ANIMALL4U</t>
+    <t>Bomba Submersa Ocean Tech 6000l/h 220v Com Controlador</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1133982590-bomba-submersa-ocean-tech-6000lh-220v-com-controlador-_JM?searchVariation=75495168314#searchVariation=75495168314&amp;position=15&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
+  </si>
+  <si>
+    <t>RMB AQUARIUM</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/RMB+AQUARIUM</t>
+  </si>
+  <si>
+    <t>Bomba Submersa P/lagos Ocean Tech 6000l/h 110v C/controlador</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1033245906-bomba-submersa-plagos-ocean-tech-6000lh-110v-ccontrolador-_JM?searchVariation=75495106645#searchVariation=75495106645&amp;position=16&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
+  </si>
+  <si>
+    <t>Bomba Sub. Ocean Tech 6000l/h 110v Com Controlador</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1033240130-bomba-sub-ocean-tech-6000lh-110v-com-controlador-_JM?searchVariation=75495193368#searchVariation=75495193368&amp;position=31&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Economica Ocean Tech Ac-3000 110v</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1920245965-bomba-submersa-economica-ocean-tech-ac-3000-110v-_JM?searchVariation=88270439798#searchVariation=88270439798&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
+  </si>
+  <si>
+    <t>KARDUMEAQUARIOEPESCAEIRELI</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/KARDUMEAQUARIOEPESCAEIRELI</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Eletrônica Lago 6.000 L/h Ac Ocean Tech</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2202437593-bomba-submersa-eletrnica-lago-6000-lh-ac-ocean-tech-_JM?searchVariation=174296016779#searchVariation=174296016779&amp;position=19&amp;search_layout=grid&amp;type=item&amp;tracking_id=8a9692b0-85c8-4064-ab6d-de6acaff19cd</t>
+  </si>
+  <si>
+    <t>SHOPREEF</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/SHOPREEF</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1299494197-bomba-submersa-ocean-tech-6000lh-220v-com-controlador-_JM?searchVariation=75495625434#searchVariation=75495625434&amp;position=21&amp;search_layout=grid&amp;type=item&amp;tracking_id=8a9692b0-85c8-4064-ab6d-de6acaff19cd</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1033240130-bomba-sub-ocean-tech-6000lh-110v-com-controlador-_JM?searchVariation=75495193368#searchVariation=75495193368&amp;position=31&amp;search_layout=grid&amp;type=item&amp;tracking_id=8a9692b0-85c8-4064-ab6d-de6acaff19cd</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1299494197-bomba-submersa-ocean-tech-6000lh-220v-com-controlador-_JM?searchVariation=75495625434#searchVariation=75495625434&amp;position=10&amp;search_layout=grid&amp;type=item&amp;tracking_id=866add78-fdb5-4ed1-af42-c7c6230dc9de</t>
+  </si>
+  <si>
+    <t>Ocean Tech Bomba 6000l/h Ac-6000 127v Com Controle Vazão</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=520727a9-a1fe-4c0f-b472-8b6a7cd3d846</t>
+  </si>
+  <si>
+    <t>MAR_TER_87</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/MAR_TER_87</t>
   </si>
 </sst>
 </file>
@@ -177,7 +234,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -214,7 +271,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1.411</v>
+        <v>799.0</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -223,6 +280,142 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>628.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/tropical-ml.xlsx
+++ b/tropical-ml.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -45,67 +45,10 @@
     <t>LOJA</t>
   </si>
   <si>
-    <t>Bomba Submersa Ocean Tech 6000l/h 220v Com Controlador</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1133982590-bomba-submersa-ocean-tech-6000lh-220v-com-controlador-_JM?searchVariation=75495168314#searchVariation=75495168314&amp;position=15&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
-  </si>
-  <si>
-    <t>RMB AQUARIUM</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/RMB+AQUARIUM</t>
-  </si>
-  <si>
-    <t>Bomba Submersa P/lagos Ocean Tech 6000l/h 110v C/controlador</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1033245906-bomba-submersa-plagos-ocean-tech-6000lh-110v-ccontrolador-_JM?searchVariation=75495106645#searchVariation=75495106645&amp;position=16&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
-  </si>
-  <si>
-    <t>Bomba Sub. Ocean Tech 6000l/h 110v Com Controlador</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1033240130-bomba-sub-ocean-tech-6000lh-110v-com-controlador-_JM?searchVariation=75495193368#searchVariation=75495193368&amp;position=31&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
-  </si>
-  <si>
-    <t>Bomba Submersa Economica Ocean Tech Ac-3000 110v</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1920245965-bomba-submersa-economica-ocean-tech-ac-3000-110v-_JM?searchVariation=88270439798#searchVariation=88270439798&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=7f1d9ebb-8109-4ebc-9354-8b58c747c7ac</t>
-  </si>
-  <si>
-    <t>KARDUMEAQUARIOEPESCAEIRELI</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/KARDUMEAQUARIOEPESCAEIRELI</t>
-  </si>
-  <si>
-    <t>Bomba Submersa Eletrônica Lago 6.000 L/h Ac Ocean Tech</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2202437593-bomba-submersa-eletrnica-lago-6000-lh-ac-ocean-tech-_JM?searchVariation=174296016779#searchVariation=174296016779&amp;position=19&amp;search_layout=grid&amp;type=item&amp;tracking_id=8a9692b0-85c8-4064-ab6d-de6acaff19cd</t>
-  </si>
-  <si>
-    <t>SHOPREEF</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/SHOPREEF</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1299494197-bomba-submersa-ocean-tech-6000lh-220v-com-controlador-_JM?searchVariation=75495625434#searchVariation=75495625434&amp;position=21&amp;search_layout=grid&amp;type=item&amp;tracking_id=8a9692b0-85c8-4064-ab6d-de6acaff19cd</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1033240130-bomba-sub-ocean-tech-6000lh-110v-com-controlador-_JM?searchVariation=75495193368#searchVariation=75495193368&amp;position=31&amp;search_layout=grid&amp;type=item&amp;tracking_id=8a9692b0-85c8-4064-ab6d-de6acaff19cd</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1299494197-bomba-submersa-ocean-tech-6000lh-220v-com-controlador-_JM?searchVariation=75495625434#searchVariation=75495625434&amp;position=10&amp;search_layout=grid&amp;type=item&amp;tracking_id=866add78-fdb5-4ed1-af42-c7c6230dc9de</t>
-  </si>
-  <si>
     <t>Ocean Tech Bomba 6000l/h Ac-6000 127v Com Controle Vazão</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=520727a9-a1fe-4c0f-b472-8b6a7cd3d846</t>
+    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=0320d5c4-92c7-4c38-89a6-e611eeef11c6</t>
   </si>
   <si>
     <t>MAR_TER_87</t>
@@ -234,7 +177,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -271,7 +214,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>799.0</v>
+        <v>836.0</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -280,142 +223,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>799.0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>799.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="n">
-        <v>628.0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="n">
-        <v>830.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="n">
-        <v>799.0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>799.0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="n">
-        <v>799.0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="n">
-        <v>836.0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/tropical-ml.xlsx
+++ b/tropical-ml.xlsx
@@ -9,11 +9,11 @@
     <sheet name="EVELINE" r:id="rId3" sheetId="1"/>
     <sheet name="MACIEL" r:id="rId4" sheetId="2"/>
     <sheet name="PAOLA" r:id="rId5" sheetId="3"/>
-    <sheet name="RODRIGO REIS" r:id="rId6" sheetId="4"/>
+    <sheet name="REIS" r:id="rId6" sheetId="4"/>
     <sheet name="ELEANDRO" r:id="rId7" sheetId="5"/>
     <sheet name="THOMAS" r:id="rId8" sheetId="6"/>
     <sheet name="DIEGO" r:id="rId9" sheetId="7"/>
-    <sheet name="WILLIAN" r:id="rId10" sheetId="8"/>
+    <sheet name="WILLIAM" r:id="rId10" sheetId="8"/>
     <sheet name="CÉSAR" r:id="rId11" sheetId="9"/>
     <sheet name="PATRICK" r:id="rId12" sheetId="10"/>
     <sheet name="AUGUSTO" r:id="rId13" sheetId="11"/>
@@ -25,30 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>PRODUTO</t>
-  </si>
-  <si>
-    <t>LINK</t>
-  </si>
-  <si>
-    <t>VALOR ANÚNCIO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>TÍTULO DO ANÚNCIO</t>
+  </si>
+  <si>
+    <t>PMS</t>
+  </si>
+  <si>
+    <t>LINK DO ANÚNCIO</t>
+  </si>
+  <si>
+    <t>ID DO ANÚNCIO</t>
+  </si>
+  <si>
+    <t>VALOR ANUNCIADO</t>
   </si>
   <si>
     <t>NICKNAME</t>
   </si>
   <si>
-    <t>LINK ANUNCIANTE</t>
-  </si>
-  <si>
-    <t>LOJA</t>
+    <t>LOJISTA</t>
+  </si>
+  <si>
+    <t>LINK DO ANUNCIANTE</t>
+  </si>
+  <si>
+    <t>Bomba De Agua Aquarios Submersa Ocean Tech 6000-220v Peixes</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2189849273-bomba-de-agua-aquarios-submersa-ocean-tech-6000-220v-peixes-_JM?searchVariation=174285931405#searchVariation=174285931405&amp;position=7&amp;search_layout=grid&amp;type=item&amp;tracking_id=ff3a1d68-947c-429d-81c2-91a6949a4041</t>
+  </si>
+  <si>
+    <t>MLB-2189849273</t>
+  </si>
+  <si>
+    <t>UNION.PET</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/UNION.PET</t>
   </si>
   <si>
     <t>Ocean Tech Bomba 6000l/h Ac-6000 127v Com Controle Vazão</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=0320d5c4-92c7-4c38-89a6-e611eeef11c6</t>
+    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=c207a2df-386d-4605-a7e4-48a69389e9b6</t>
+  </si>
+  <si>
+    <t>MLB-1875665643</t>
   </si>
   <si>
     <t>MAR_TER_87</t>
@@ -91,26 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -177,14 +183,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="0.01171875" customWidth="true"/>
-  </cols>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -205,22 +208,59 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
         <v>836.0</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tropical-ml.xlsx
+++ b/tropical-ml.xlsx
@@ -6,26 +6,27 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="EVELINE" r:id="rId3" sheetId="1"/>
-    <sheet name="MACIEL" r:id="rId4" sheetId="2"/>
-    <sheet name="PAOLA" r:id="rId5" sheetId="3"/>
-    <sheet name="REIS" r:id="rId6" sheetId="4"/>
-    <sheet name="ELEANDRO" r:id="rId7" sheetId="5"/>
-    <sheet name="THOMAS" r:id="rId8" sheetId="6"/>
-    <sheet name="DIEGO" r:id="rId9" sheetId="7"/>
-    <sheet name="WILLIAM" r:id="rId10" sheetId="8"/>
-    <sheet name="CÉSAR" r:id="rId11" sheetId="9"/>
-    <sheet name="PATRICK" r:id="rId12" sheetId="10"/>
-    <sheet name="AUGUSTO" r:id="rId13" sheetId="11"/>
-    <sheet name="CARLOS EDUARDO" r:id="rId14" sheetId="12"/>
-    <sheet name="RAFAEL" r:id="rId15" sheetId="13"/>
+    <sheet name="CARLOS EDUARDO" r:id="rId3" sheetId="1"/>
+    <sheet name="CÉSAR" r:id="rId4" sheetId="2"/>
+    <sheet name="DIEGO" r:id="rId5" sheetId="3"/>
+    <sheet name="ELEANDRO" r:id="rId6" sheetId="4"/>
+    <sheet name="EVELINE" r:id="rId7" sheetId="5"/>
+    <sheet name="MACIEL" r:id="rId8" sheetId="6"/>
+    <sheet name="OZIEL" r:id="rId9" sheetId="7"/>
+    <sheet name="PAOLA" r:id="rId10" sheetId="8"/>
+    <sheet name="PATRICK" r:id="rId11" sheetId="9"/>
+    <sheet name="RAFAEL" r:id="rId12" sheetId="10"/>
+    <sheet name="REIS" r:id="rId13" sheetId="11"/>
+    <sheet name="THOMAS" r:id="rId14" sheetId="12"/>
+    <sheet name="WILLIAM" r:id="rId15" sheetId="13"/>
     <sheet name="DESCONHECIDO" r:id="rId16" sheetId="14"/>
+    <sheet name="GERAL" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
   <si>
     <t>TÍTULO DO ANÚNCIO</t>
   </si>
@@ -51,34 +52,109 @@
     <t>LINK DO ANUNCIANTE</t>
   </si>
   <si>
-    <t>Bomba De Agua Aquarios Submersa Ocean Tech 6000-220v Peixes</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2189849273-bomba-de-agua-aquarios-submersa-ocean-tech-6000-220v-peixes-_JM?searchVariation=174285931405#searchVariation=174285931405&amp;position=7&amp;search_layout=grid&amp;type=item&amp;tracking_id=ff3a1d68-947c-429d-81c2-91a6949a4041</t>
-  </si>
-  <si>
-    <t>MLB-2189849273</t>
-  </si>
-  <si>
-    <t>UNION.PET</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/UNION.PET</t>
-  </si>
-  <si>
-    <t>Ocean Tech Bomba 6000l/h Ac-6000 127v Com Controle Vazão</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=c207a2df-386d-4605-a7e4-48a69389e9b6</t>
-  </si>
-  <si>
-    <t>MLB-1875665643</t>
-  </si>
-  <si>
-    <t>MAR_TER_87</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/MAR_TER_87</t>
+    <t>Bomba Sub. P/lagos Ocean Tech 12000l/h 110v C/controlador</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1182085568-bomba-sub-plagos-ocean-tech-12000lh-110v-ccontrolador-_JM?searchVariation=75495349983#searchVariation=75495349983&amp;position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=1e58ceb6-cd63-43a7-b58c-56823a30b10e</t>
+  </si>
+  <si>
+    <t>MLB-1182085568</t>
+  </si>
+  <si>
+    <t>RMB AQUARIUM</t>
+  </si>
+  <si>
+    <t>RICARDO M BASIOTTI</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/RMB+AQUARIUM</t>
+  </si>
+  <si>
+    <t>VENDEDOR</t>
+  </si>
+  <si>
+    <t>EVELINE</t>
+  </si>
+  <si>
+    <t>Bomba Sub. P/lagos Ocean Tech 12000l/h 220v C/controlador</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1182082297-bomba-sub-plagos-ocean-tech-12000lh-220v-ccontrolador-_JM?searchVariation=75495184947#searchVariation=75495184947&amp;position=17&amp;search_layout=grid&amp;type=item&amp;tracking_id=1e58ceb6-cd63-43a7-b58c-56823a30b10e</t>
+  </si>
+  <si>
+    <t>MLB-1182082297</t>
+  </si>
+  <si>
+    <t>Ocean Tech Bomba 12000l/h Ac-12000 110v Com Controle Vazão</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1887554787-ocean-tech-bomba-12000lh-ac-12000-110v-com-controle-vazo-_JM?searchVariation=93312951686#searchVariation=93312951686&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=1e58ceb6-cd63-43a7-b58c-56823a30b10e</t>
+  </si>
+  <si>
+    <t>MLB-1887554787</t>
+  </si>
+  <si>
+    <t>BIZO4579080</t>
+  </si>
+  <si>
+    <t>NAUTILUS</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/BIZO4579080</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Eletrônica Lagos Super Eco Ac-12000 L/h 85w</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2107641454-bomba-submersa-eletrnica-lagos-super-eco-ac-12000-lh-85w-_JM?searchVariation=173985578547#searchVariation=173985578547&amp;position=24&amp;search_layout=grid&amp;type=item&amp;tracking_id=5a7ee947-206d-41c1-8709-b3872adb4db7</t>
+  </si>
+  <si>
+    <t>MLB-2107641454</t>
+  </si>
+  <si>
+    <t>AQUARISMO.SUPER</t>
+  </si>
+  <si>
+    <t>PARAÍSO DOS AQUARIOS</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/AQUARISMO.SUPER</t>
+  </si>
+  <si>
+    <t>OZIEL</t>
+  </si>
+  <si>
+    <t>Oceantech Bomba 20000l/h Ac 20000 Com Controle Vazão</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2186368037-oceantech-bomba-20000lh-ac-20000-com-controle-vazo-_JM?searchVariation=174232922577#searchVariation=174232922577&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=68fe7b7a-9f3d-45a4-9eca-d9c8879a6404</t>
+  </si>
+  <si>
+    <t>MLB-2186368037</t>
+  </si>
+  <si>
+    <t>ANIMALL4U</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/ANIMALL4U</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2186368037-oceantech-bomba-20000lh-ac-20000-com-controle-vazo-_JM?searchVariation=174232922577#searchVariation=174232922577&amp;position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=0a1ba7c2-bc95-491d-9a29-3a666fc0844a</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2186368037-oceantech-bomba-20000lh-ac-20000-com-controle-vazo-_JM?searchVariation=174232922577#searchVariation=174232922577&amp;position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a32e1d2-8ea6-41a7-bb89-0213fa98e69e</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ocean Tech Ac-30000 Lagos E Fontes - 30000l/h</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2052829725-bomba-submersa-ocean-tech-ac-30000-lagos-e-fontes-30000lh-_JM?searchVariation=173799393139#searchVariation=173799393139&amp;position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=0fa81927-67ef-4fa2-a47a-e8c310895385</t>
+  </si>
+  <si>
+    <t>MLB-2052829725</t>
   </si>
 </sst>
 </file>
@@ -159,31 +235,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -217,10 +269,154 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>837.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -229,38 +425,401 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>795.0</v>
+        <v>945.0</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2549.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" t="n">
-        <v>837.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>836.0</v>
+        <v>945.0</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4"/>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2549.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -268,54 +827,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -330,12 +841,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
